--- a/sport/output/11.xlsx
+++ b/sport/output/11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="354">
   <si>
     <t>SeasonId</t>
   </si>
@@ -85,12 +85,12 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>2425</t>
-  </si>
-  <si>
     <t>2526</t>
   </si>
   <si>
+    <t>2627</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -100,997 +100,982 @@
     <t>3</t>
   </si>
   <si>
-    <t>SB2425SWRLCH__</t>
-  </si>
-  <si>
-    <t>BT2425SIBUCP01</t>
-  </si>
-  <si>
-    <t>BT2425SWRLCP01</t>
-  </si>
-  <si>
-    <t>BT2425SIBUCP02</t>
-  </si>
-  <si>
-    <t>BT2425SWRLCP02</t>
-  </si>
-  <si>
-    <t>BT2425JIBUCP01</t>
-  </si>
-  <si>
-    <t>BT2425SWRLCP03</t>
-  </si>
-  <si>
-    <t>BT2425JIBUCP02</t>
-  </si>
-  <si>
-    <t>BT2425SIBUCP03</t>
-  </si>
-  <si>
-    <t>BT2425SIBUCP04</t>
-  </si>
-  <si>
-    <t>BT2425SWRLCP04</t>
-  </si>
-  <si>
-    <t>BT2425JIBUCP03</t>
-  </si>
-  <si>
-    <t>BT2425SIBUCP05</t>
-  </si>
-  <si>
-    <t>BT2425SWRLUG__</t>
-  </si>
-  <si>
-    <t>BT2425SWRLCP05</t>
+    <t>PB2526SIBUL1__</t>
+  </si>
+  <si>
+    <t>SB2526SIBUL1__</t>
+  </si>
+  <si>
+    <t>BT2526SWRLCP01</t>
+  </si>
+  <si>
+    <t>BT2526SIBUCP01</t>
+  </si>
+  <si>
+    <t>PB2526SWRLCP01</t>
+  </si>
+  <si>
+    <t>BT2526JIBUCP01</t>
+  </si>
+  <si>
+    <t>BT2526SWRLCP02</t>
+  </si>
+  <si>
+    <t>BT2526SIBUCP02</t>
+  </si>
+  <si>
+    <t>BT2526SWRLCP03</t>
+  </si>
+  <si>
+    <t>BT2526SIBUCP03</t>
+  </si>
+  <si>
+    <t>BT2526JIBUCP02</t>
+  </si>
+  <si>
+    <t>BT2526SIBUCP04</t>
+  </si>
+  <si>
+    <t>PB2526SWRLCP02</t>
+  </si>
+  <si>
+    <t>BT2526SWRLCP04</t>
+  </si>
+  <si>
+    <t>BT2526JIBUCP03</t>
+  </si>
+  <si>
+    <t>BT2526SIBUCP05</t>
+  </si>
+  <si>
+    <t>BT2526SWRLCP05</t>
+  </si>
+  <si>
+    <t>BT2526JCEUCH__</t>
+  </si>
+  <si>
+    <t>PB2526SWRLCP03</t>
+  </si>
+  <si>
+    <t>BT2526SWRLCP06</t>
+  </si>
+  <si>
+    <t>BT2526SCEUCH__</t>
+  </si>
+  <si>
+    <t>BT2526SIBUCP06</t>
+  </si>
+  <si>
+    <t>BT2526SWRLOG__</t>
+  </si>
+  <si>
+    <t>BT2526SIBUCP07</t>
+  </si>
+  <si>
+    <t>BT2526JWRLCH__</t>
+  </si>
+  <si>
+    <t>BT2526SWRLCP07</t>
+  </si>
+  <si>
+    <t>BT2526SIBUCP08</t>
+  </si>
+  <si>
+    <t>PB2526SWRLPG__</t>
+  </si>
+  <si>
+    <t>BT2526SWRLCP08</t>
+  </si>
+  <si>
+    <t>BT2526SWRLCP09</t>
+  </si>
+  <si>
+    <t>BT2627SIBUCP01</t>
+  </si>
+  <si>
+    <t>BT2627SWRLCP01</t>
+  </si>
+  <si>
+    <t>BT2627SIBUCP02</t>
+  </si>
+  <si>
+    <t>BT2627SWRLCP02</t>
+  </si>
+  <si>
+    <t>BT2627SWRLCP03</t>
+  </si>
+  <si>
+    <t>BT2627SIBUCP03</t>
+  </si>
+  <si>
+    <t>BT2627SWRLCP04</t>
+  </si>
+  <si>
+    <t>BT2627SIBUCP04</t>
+  </si>
+  <si>
+    <t>BT2627SWRLCP05</t>
+  </si>
+  <si>
+    <t>BT2627SIBUCP05</t>
+  </si>
+  <si>
+    <t>BT2627JIBUCP01</t>
+  </si>
+  <si>
+    <t>BT2627SWRLCP06</t>
+  </si>
+  <si>
+    <t>BT2627SWRLCP07</t>
+  </si>
+  <si>
+    <t>BT2627SCEUCH__</t>
+  </si>
+  <si>
+    <t>BT2627SIBUCP06</t>
+  </si>
+  <si>
+    <t>BT2627JIBUCP02</t>
+  </si>
+  <si>
+    <t>BT2627SWRLCH__</t>
+  </si>
+  <si>
+    <t>BT2627JWRLCH__</t>
+  </si>
+  <si>
+    <t>BT2627JIBUCP03</t>
+  </si>
+  <si>
+    <t>BT2627SIBUCP07</t>
+  </si>
+  <si>
+    <t>BT2627SWRLCP08</t>
+  </si>
+  <si>
+    <t>BT2627SIBUCP08</t>
+  </si>
+  <si>
+    <t>BT2627SWRLCP09</t>
+  </si>
+  <si>
+    <t>BT2627SWRLCP10</t>
+  </si>
+  <si>
+    <t>2025-10-18T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-12-01T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-12-08T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-12-15T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-01-05T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-01-12T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-01-19T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-01-25T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-02-02T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-02-23T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-02-25T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-03-02T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-03-06T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-03-09T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-03-16T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-11-23T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-11-24T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-11-30T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-12-01T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-12-08T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-12-14T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-12-31T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-01-04T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-01-05T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-01-11T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-01-12T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-01-19T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-01-25T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-02-01T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-02-08T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-02-22T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-03-01T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-03-02T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-03-08T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-03-09T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-03-16T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-10-19T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-12-07T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-12-14T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-12-21T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-12-20T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-01-11T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-01-17T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-01-18T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-02-01T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-02-07T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-02-22T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-03-01T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-03-08T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-03-07T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-03-15T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-03-22T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-11-29T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-12-06T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-12-13T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-12-20T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-01-03T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-01-10T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-01-17T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-01-24T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-01-31T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-02-07T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-02-21T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-02-28T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-03-07T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-03-14T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-03-21T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-10-18T08:15:00Z</t>
+  </si>
+  <si>
+    <t>2025-10-18T14:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-11-29T12:15:00Z</t>
+  </si>
+  <si>
+    <t>2025-12-04T09:30:00Z</t>
+  </si>
+  <si>
+    <t>2025-12-10T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2025-12-11T09:30:00Z</t>
+  </si>
+  <si>
+    <t>2025-12-12T10:25:00Z</t>
+  </si>
+  <si>
+    <t>2025-12-11T09:20:00Z</t>
+  </si>
+  <si>
+    <t>2025-12-18T13:15:00Z</t>
+  </si>
+  <si>
+    <t>2025-12-17T09:45:00Z</t>
+  </si>
+  <si>
+    <t>2025-12-18T09:30:00Z</t>
+  </si>
+  <si>
+    <t>2026-01-08T09:30:00Z</t>
+  </si>
+  <si>
+    <t>2026-01-08T09:45:00Z</t>
+  </si>
+  <si>
+    <t>2026-01-08T13:10:00Z</t>
+  </si>
+  <si>
+    <t>2026-01-14T08:30:00Z</t>
+  </si>
+  <si>
+    <t>2026-01-14T09:45:00Z</t>
+  </si>
+  <si>
+    <t>2026-01-14T13:30:00Z</t>
+  </si>
+  <si>
+    <t>2026-01-21T08:30:00Z</t>
+  </si>
+  <si>
+    <t>2026-01-22T09:45:00Z</t>
+  </si>
+  <si>
+    <t>2026-01-22T17:15:00Z</t>
+  </si>
+  <si>
+    <t>2026-01-28T09:20:00Z</t>
+  </si>
+  <si>
+    <t>2026-02-04T09:45:00Z</t>
+  </si>
+  <si>
+    <t>2026-02-08T13:05:00Z</t>
+  </si>
+  <si>
+    <t>2026-02-26T15:30:00Z</t>
+  </si>
+  <si>
+    <t>2026-02-28T09:30:00Z</t>
+  </si>
+  <si>
+    <t>2026-03-05T16:05:00Z</t>
+  </si>
+  <si>
+    <t>2026-03-04T15:45:00Z</t>
+  </si>
+  <si>
+    <t>2026-03-06T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-03-12T14:15:00Z</t>
+  </si>
+  <si>
+    <t>2026-03-19T15:15:00Z</t>
+  </si>
+  <si>
+    <t>2026-11-24T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-11-25T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-12-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-12-02T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-12-09T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2026-12-15T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-01-05T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-01-06T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-01-12T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-01-13T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-01-20T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-01-26T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-02-02T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-02-09T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-02-23T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-03-02T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-03-03T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-03-09T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-03-10T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2027-03-17T00:00:00Z</t>
+  </si>
+  <si>
+    <t>Loop One Festival Para Biathlon</t>
+  </si>
+  <si>
+    <t>Loop One Festival</t>
+  </si>
+  <si>
+    <t>BMW IBU World Cup Biathlon</t>
+  </si>
+  <si>
+    <t>IBU Cup Biathlon</t>
+  </si>
+  <si>
+    <t>IBU Para Biathlon World Cup 1</t>
+  </si>
+  <si>
+    <t>IBU Junior Cup Biathlon</t>
+  </si>
+  <si>
+    <t>IBU Para Biathlon World Cup 2</t>
+  </si>
+  <si>
+    <t>IBU Junior Open European Championships</t>
+  </si>
+  <si>
+    <t>IBU Para Biathlon World Cup 3</t>
+  </si>
+  <si>
+    <t>IBU Open European Championships Biathlon</t>
+  </si>
+  <si>
+    <t>Olympic Winter Games</t>
+  </si>
+  <si>
+    <t>IBU Youth/Junior World Championships</t>
+  </si>
+  <si>
+    <t>Paralympic Winter Games</t>
+  </si>
+  <si>
+    <t>IBU World Cup Biathlon</t>
+  </si>
+  <si>
+    <t>IBU Open European Championships</t>
+  </si>
+  <si>
+    <t>IBU World Championships Biathlon</t>
+  </si>
+  <si>
+    <t>IBU Junior World Championships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 </t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Munich</t>
+  </si>
+  <si>
+    <t>Oestersund</t>
+  </si>
+  <si>
+    <t>Obertilliach</t>
+  </si>
+  <si>
+    <t>Canmore</t>
+  </si>
+  <si>
+    <t>Goms</t>
+  </si>
+  <si>
+    <t>Hochfilzen</t>
+  </si>
+  <si>
+    <t>Ridnaun-Val Ridanna</t>
+  </si>
+  <si>
+    <t>Annecy-Le Grand Bornand</t>
+  </si>
+  <si>
+    <t>Lenzerheide</t>
+  </si>
+  <si>
+    <t>Martell-Val Martello</t>
+  </si>
+  <si>
+    <t>Arber</t>
+  </si>
+  <si>
+    <t>Notschrei</t>
+  </si>
+  <si>
+    <t>Oberhof</t>
+  </si>
+  <si>
+    <t>Madona</t>
+  </si>
+  <si>
+    <t>Brezno-Osrblie</t>
+  </si>
+  <si>
+    <t>Ruhpolding</t>
+  </si>
+  <si>
+    <t>Imatra</t>
+  </si>
+  <si>
+    <t>Jakuszyce</t>
+  </si>
+  <si>
+    <t>Nove Mesto na Morave</t>
+  </si>
+  <si>
+    <t>Sjusjoen</t>
+  </si>
+  <si>
+    <t>Antholz-Anterselva</t>
+  </si>
+  <si>
+    <t>Lake Placid, NY</t>
+  </si>
+  <si>
+    <t>Kontiolahti</t>
+  </si>
+  <si>
+    <t>Val di Fiemme</t>
+  </si>
+  <si>
+    <t>Otepaa</t>
+  </si>
+  <si>
+    <t>Oslo Holmenkollen</t>
+  </si>
+  <si>
+    <t>Idre Fjaell</t>
+  </si>
+  <si>
+    <t>Pokljuka</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>1385</t>
+  </si>
+  <si>
+    <t>1407</t>
+  </si>
+  <si>
+    <t>1347</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>928</t>
+  </si>
+  <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>625</t>
+  </si>
+  <si>
+    <t>729</t>
+  </si>
+  <si>
+    <t>1634</t>
+  </si>
+  <si>
+    <t>616</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>1340</t>
+  </si>
+  <si>
+    <t>MUC</t>
+  </si>
+  <si>
+    <t>OST</t>
+  </si>
+  <si>
+    <t>OBT</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>GOM</t>
+  </si>
+  <si>
+    <t>HOC</t>
+  </si>
+  <si>
+    <t>RID</t>
+  </si>
+  <si>
+    <t>ANN</t>
+  </si>
+  <si>
+    <t>LEN</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>ARB</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>OBE</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>OSR</t>
+  </si>
+  <si>
+    <t>RUH</t>
+  </si>
+  <si>
+    <t>IMA</t>
+  </si>
+  <si>
+    <t>JAK</t>
+  </si>
+  <si>
+    <t>NMS</t>
+  </si>
+  <si>
+    <t>SJU</t>
+  </si>
+  <si>
+    <t>ANT</t>
+  </si>
+  <si>
+    <t>LAK</t>
+  </si>
+  <si>
+    <t>KON</t>
+  </si>
+  <si>
+    <t>TCC</t>
+  </si>
+  <si>
+    <t>OTE</t>
+  </si>
+  <si>
+    <t>OSL</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>POK</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>SUI</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>SLO</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
   </si>
   <si>
     <t>BT2425JCEUCH__</t>
   </si>
   <si>
-    <t>BT2425SWRLCP06</t>
-  </si>
-  <si>
-    <t>BT2425SCEUCH__</t>
-  </si>
-  <si>
-    <t>BT2425SIBUCP06</t>
-  </si>
-  <si>
-    <t>BT2425SASIMG__</t>
-  </si>
-  <si>
-    <t>BT2425JCEUOF__</t>
-  </si>
-  <si>
-    <t>BT2425SWRLCH__</t>
-  </si>
-  <si>
-    <t>BT2425JWRLCH__</t>
-  </si>
-  <si>
-    <t>BT2425SWRLCP07</t>
-  </si>
-  <si>
-    <t>BT2425SIBUCP07</t>
-  </si>
-  <si>
-    <t>BT2425SIBUCP08</t>
-  </si>
-  <si>
-    <t>BT2425SWRLCP08</t>
-  </si>
-  <si>
-    <t>BT2425SWRLCP09</t>
-  </si>
-  <si>
-    <t>BT2425SWRLMG__</t>
-  </si>
-  <si>
-    <t>BT2526SWRLCP01</t>
-  </si>
-  <si>
-    <t>BT2526SIBUCP01</t>
-  </si>
-  <si>
-    <t>BT2526JIBUCP01</t>
-  </si>
-  <si>
-    <t>BT2526SWRLCP02</t>
-  </si>
-  <si>
-    <t>BT2526SIBUCP02</t>
-  </si>
-  <si>
-    <t>BT2526SWRLCP03</t>
-  </si>
-  <si>
-    <t>BT2526SIBUCP03</t>
-  </si>
-  <si>
-    <t>BT2526JIBUCP02</t>
-  </si>
-  <si>
-    <t>BT2526SIBUCP04</t>
-  </si>
-  <si>
-    <t>BT2526SWRLCP04</t>
-  </si>
-  <si>
-    <t>BT2526JIBUCP03</t>
-  </si>
-  <si>
-    <t>BT2526SIBUCP05</t>
-  </si>
-  <si>
-    <t>BT2526SWRLCP05</t>
-  </si>
-  <si>
-    <t>BT2526JCEUCH__</t>
-  </si>
-  <si>
-    <t>BT2526SWRLCP06</t>
-  </si>
-  <si>
-    <t>BT2526SCEUCH__</t>
-  </si>
-  <si>
-    <t>BT2526SIBUCP06</t>
-  </si>
-  <si>
-    <t>BT2526SWRLOG__</t>
-  </si>
-  <si>
-    <t>BT2526SIBUCP07</t>
-  </si>
-  <si>
-    <t>BT2526JWRLCH__</t>
-  </si>
-  <si>
-    <t>BT2526SWRLCP07</t>
-  </si>
-  <si>
-    <t>BT2526SIBUCP08</t>
-  </si>
-  <si>
-    <t>PB2526SWRLPG__</t>
-  </si>
-  <si>
-    <t>BT2526SWRLCP08</t>
-  </si>
-  <si>
-    <t>BT2526SWRLCP09</t>
-  </si>
-  <si>
-    <t>2024-08-19T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-11-25T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-11-27T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-02T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-09T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-16T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-01-06T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-01-13T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-01-20T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-01-26T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-02-03T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-02-07T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-02-09T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-02-24T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-03-03T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-03-10T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-03-17T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-03-23T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-11-29T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-12-01T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-12-08T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-12-15T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-01-05T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-01-12T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-01-19T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-01-26T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-02-02T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-02-06T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-02-23T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-02-25T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-03-02T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-03-06T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-03-09T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-03-16T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-08-25T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-01T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-08T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-07T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-15T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-22T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-21T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-01-12T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-01-19T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-01-18T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-01-23T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-02-02T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-02-08T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-02-14T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-02-16T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-02-23T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-03-05T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-03-09T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-03-15T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-03-16T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-03-30T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-12-07T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-12-14T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-12-21T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-12-20T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-01-11T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-01-17T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-01-18T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-01-25T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-02-01T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-02-08T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-02-22T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-03-01T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-03-08T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-03-15T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-03-22T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-08-22T02:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-11-28T09:30:00Z</t>
-  </si>
-  <si>
-    <t>2024-11-30T12:15:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-04T09:00:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-13T10:30:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-12T09:30:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-19T13:20:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-18T09:45:00Z</t>
-  </si>
-  <si>
-    <t>2024-12-19T09:45:00Z</t>
-  </si>
-  <si>
-    <t>2025-01-09T10:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-01-09T13:20:00Z</t>
-  </si>
-  <si>
-    <t>2025-01-16T09:45:00Z</t>
-  </si>
-  <si>
-    <t>2025-01-15T09:30:00Z</t>
-  </si>
-  <si>
-    <t>2025-01-14T09:05:00Z</t>
-  </si>
-  <si>
-    <t>2025-01-15T13:10:00Z</t>
-  </si>
-  <si>
-    <t>2025-01-22T09:30:00Z</t>
-  </si>
-  <si>
-    <t>2025-01-23T13:30:00Z</t>
-  </si>
-  <si>
-    <t>2025-01-29T09:30:00Z</t>
-  </si>
-  <si>
-    <t>2025-02-05T09:45:00Z</t>
-  </si>
-  <si>
-    <t>2025-02-08T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-02-10T06:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-02-12T13:30:00Z</t>
-  </si>
-  <si>
-    <t>2025-02-26T12:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-03-06T17:20:00Z</t>
-  </si>
-  <si>
-    <t>2025-03-06T08:40:00Z</t>
-  </si>
-  <si>
-    <t>2025-03-12T09:30:00Z</t>
-  </si>
-  <si>
-    <t>2025-03-13T14:15:00Z</t>
-  </si>
-  <si>
-    <t>2025-03-21T12:30:00Z</t>
-  </si>
-  <si>
-    <t>2025-03-24T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-11-28T23:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-12-02T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-12-09T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-12-11T23:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-12-17T23:00:00Z</t>
-  </si>
-  <si>
-    <t>2025-12-16T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-01-06T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-01-07T23:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-01-13T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-01-13T23:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-01-20T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-01-21T23:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-01-27T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-02-03T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-02-07T23:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-02-24T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-02-26T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-03-04T23:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-03-03T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-03-07T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-03-11T23:00:00Z</t>
-  </si>
-  <si>
-    <t>2026-03-18T23:00:00Z</t>
-  </si>
-  <si>
-    <t>IBU Summer Biathlon World Championships</t>
-  </si>
-  <si>
-    <t>IBU Cup Biathlon</t>
-  </si>
-  <si>
-    <t>BMW IBU World Cup Biathlon</t>
-  </si>
-  <si>
-    <t>IBU Junior Cup Biathlon</t>
-  </si>
-  <si>
-    <t>FISU World University Games</t>
-  </si>
-  <si>
-    <t>IBU Junior Open European Championships</t>
-  </si>
-  <si>
-    <t>IBU Open European Championships Biathlon</t>
-  </si>
-  <si>
-    <t>Asian Winter Games</t>
-  </si>
-  <si>
-    <t>European Youth Winter Olympic Festival</t>
-  </si>
-  <si>
-    <t>IBU World Championships Biathlon</t>
-  </si>
-  <si>
-    <t>IBU Youth/Junior World Championships</t>
-  </si>
-  <si>
-    <t>CISM World Military Games</t>
-  </si>
-  <si>
-    <t>Olympic Winter Games</t>
-  </si>
-  <si>
-    <t>Paralympic Winter Games</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 </t>
-  </si>
-  <si>
-    <t>Otepaa</t>
-  </si>
-  <si>
-    <t>Idre Fjaell</t>
-  </si>
-  <si>
-    <t>Kontiolahti</t>
-  </si>
-  <si>
-    <t>Geilo</t>
-  </si>
-  <si>
-    <t>Hochfilzen</t>
-  </si>
-  <si>
-    <t>Ridnaun-Val Ridanna</t>
-  </si>
-  <si>
-    <t>Annecy-Le Grand Bornand</t>
-  </si>
-  <si>
-    <t>Goms</t>
-  </si>
-  <si>
-    <t>Obertilliach</t>
-  </si>
-  <si>
-    <t>Arber</t>
-  </si>
-  <si>
-    <t>Oberhof</t>
-  </si>
-  <si>
-    <t>Jakuszyce</t>
-  </si>
-  <si>
-    <t>Brezno-Osrblie</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Ruhpolding</t>
-  </si>
-  <si>
-    <t>Altenberg</t>
-  </si>
-  <si>
-    <t>Antholz-Anterselva</t>
-  </si>
-  <si>
-    <t>Martell-Val Martello</t>
-  </si>
-  <si>
-    <t>Harbin</t>
-  </si>
-  <si>
-    <t>Borjomi-Bakuriani</t>
-  </si>
-  <si>
-    <t>Lenzerheide</t>
-  </si>
-  <si>
-    <t>Oestersund</t>
-  </si>
-  <si>
-    <t>Nove Mesto na Morave</t>
-  </si>
-  <si>
-    <t>Pokljuka</t>
-  </si>
-  <si>
-    <t>Oslo Holmenkollen</t>
-  </si>
-  <si>
-    <t>Lucerne</t>
-  </si>
-  <si>
-    <t>Madona</t>
-  </si>
-  <si>
-    <t>Imatra</t>
-  </si>
-  <si>
-    <t>Sjusjoen</t>
-  </si>
-  <si>
-    <t>Lake Placid, NY</t>
-  </si>
-  <si>
-    <t>Val di Fiemme</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>710</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>766</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>928</t>
-  </si>
-  <si>
-    <t>1347</t>
-  </si>
-  <si>
-    <t>1385</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>883</t>
-  </si>
-  <si>
-    <t>604</t>
-  </si>
-  <si>
-    <t>830</t>
-  </si>
-  <si>
-    <t>1634</t>
-  </si>
-  <si>
-    <t>1700</t>
-  </si>
-  <si>
-    <t>363</t>
-  </si>
-  <si>
-    <t>625</t>
-  </si>
-  <si>
-    <t>1340</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>729</t>
-  </si>
-  <si>
-    <t>OTE</t>
-  </si>
-  <si>
-    <t>IDR</t>
-  </si>
-  <si>
-    <t>KON</t>
-  </si>
-  <si>
-    <t>GEI</t>
-  </si>
-  <si>
-    <t>HOC</t>
-  </si>
-  <si>
-    <t>RID</t>
-  </si>
-  <si>
-    <t>ANN</t>
-  </si>
-  <si>
-    <t>GOM</t>
-  </si>
-  <si>
-    <t>OBT</t>
-  </si>
-  <si>
-    <t>ARB</t>
-  </si>
-  <si>
-    <t>OBE</t>
-  </si>
-  <si>
-    <t>JAK</t>
-  </si>
-  <si>
-    <t>OSR</t>
-  </si>
-  <si>
-    <t>PRT</t>
-  </si>
-  <si>
-    <t>RUH</t>
-  </si>
-  <si>
-    <t>ALT</t>
-  </si>
-  <si>
-    <t>ANT</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>HAR</t>
-  </si>
-  <si>
-    <t>BAK</t>
-  </si>
-  <si>
-    <t>LEN</t>
-  </si>
-  <si>
-    <t>OST</t>
-  </si>
-  <si>
-    <t>NMS</t>
-  </si>
-  <si>
-    <t>POK</t>
-  </si>
-  <si>
-    <t>OSL</t>
-  </si>
-  <si>
-    <t>LUC</t>
-  </si>
-  <si>
-    <t>MAD</t>
-  </si>
-  <si>
-    <t>IMA</t>
-  </si>
-  <si>
-    <t>SJU</t>
-  </si>
-  <si>
-    <t>LAK</t>
-  </si>
-  <si>
-    <t>TCC</t>
-  </si>
-  <si>
-    <t>EST</t>
-  </si>
-  <si>
-    <t>SWE</t>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>NOR</t>
-  </si>
-  <si>
-    <t>AUT</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>SUI</t>
-  </si>
-  <si>
-    <t>GER</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>SVK</t>
-  </si>
-  <si>
-    <t>CHN</t>
-  </si>
-  <si>
-    <t>GEO</t>
-  </si>
-  <si>
-    <t>CZE</t>
-  </si>
-  <si>
-    <t>SLO</t>
-  </si>
-  <si>
-    <t>LAT</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Czechia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>SBSWRLCH</t>
+    <t>PBSIBUL1</t>
+  </si>
+  <si>
+    <t>SBSIBUL1</t>
+  </si>
+  <si>
+    <t>BTSWRLCP</t>
   </si>
   <si>
     <t>BTSIBUCP</t>
   </si>
   <si>
-    <t>BTSWRLCP</t>
+    <t>PBSWRLCP</t>
   </si>
   <si>
     <t>BTJIBUCP</t>
   </si>
   <si>
-    <t>BTSWRLUG</t>
-  </si>
-  <si>
     <t>BTJCEUCH</t>
   </si>
   <si>
     <t>BTSCEUCH</t>
   </si>
   <si>
-    <t>BTS___MG</t>
-  </si>
-  <si>
-    <t>BTJCEUOF</t>
+    <t>BTSWRLOG</t>
+  </si>
+  <si>
+    <t>BTJWRLCH</t>
+  </si>
+  <si>
+    <t>PBSWRLPG</t>
   </si>
   <si>
     <t>BTSWRLCH</t>
-  </si>
-  <si>
-    <t>BTJWRLCH</t>
-  </si>
-  <si>
-    <t>BTSWRLMG</t>
-  </si>
-  <si>
-    <t>BTSWRLOG</t>
-  </si>
-  <si>
-    <t>PBSWRLPG</t>
   </si>
 </sst>
 </file>
@@ -1536,46 +1521,40 @@
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J2" t="s">
         <v>258</v>
       </c>
       <c r="K2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N2" t="s">
-        <v>328</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
+        <v>325</v>
       </c>
       <c r="P2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -1591,53 +1570,47 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" t="s">
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="I3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
         <v>2</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -1660,46 +1633,46 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -1722,40 +1695,40 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H5" t="s">
         <v>219</v>
       </c>
       <c r="I5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="N5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1784,46 +1757,46 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H6" t="s">
         <v>219</v>
       </c>
       <c r="I6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M6" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="N6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -1846,40 +1819,40 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="N7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -1908,40 +1881,40 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H8" t="s">
         <v>220</v>
       </c>
       <c r="I8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N8" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="P8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -1970,43 +1943,43 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
         <v>122</v>
       </c>
       <c r="F9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M9" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="P9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -2032,43 +2005,43 @@
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
         <v>204</v>
       </c>
       <c r="H10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M10" t="s">
         <v>315</v>
       </c>
       <c r="N10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>1</v>
@@ -2088,46 +2061,46 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H11" t="s">
         <v>221</v>
       </c>
       <c r="I11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="N11" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="P11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -2150,49 +2123,49 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
         <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M12" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="N12" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P12" t="s">
         <v>347</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -2218,43 +2191,43 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I13" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L13" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M13" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="N13" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="P13" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -2280,43 +2253,40 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
         <v>125</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I14" t="s">
-        <v>239</v>
-      </c>
-      <c r="J14" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="K14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M14" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="N14" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="P14" t="s">
         <v>346</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R14">
         <v>1</v>
@@ -2336,46 +2306,49 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H15" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I15" t="s">
-        <v>240</v>
+        <v>242</v>
+      </c>
+      <c r="J15" t="s">
+        <v>268</v>
       </c>
       <c r="K15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M15" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="N15" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="P15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>1</v>
@@ -2401,46 +2374,46 @@
         <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J16" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="K16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="N16" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P16" t="s">
         <v>347</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -2463,46 +2436,43 @@
         <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H17" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="I17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N17" t="s">
-        <v>336</v>
-      </c>
-      <c r="O17" t="s">
-        <v>43</v>
+        <v>333</v>
       </c>
       <c r="P17" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R17">
         <v>1</v>
@@ -2528,40 +2498,40 @@
         <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H18" t="s">
         <v>223</v>
       </c>
       <c r="I18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M18" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="N18" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="P18" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -2584,52 +2554,55 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
         <v>209</v>
       </c>
+      <c r="H19" t="s">
+        <v>224</v>
+      </c>
       <c r="I19" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L19" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M19" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O19" t="s">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="P19" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
         <v>2</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -2646,49 +2619,49 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I20" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="J20" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="K20" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="L20" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="M20" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N20" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P20" t="s">
         <v>346</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R20">
         <v>1</v>
@@ -2707,53 +2680,59 @@
       <c r="A21" t="s">
         <v>23</v>
       </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
       <c r="C21" t="s">
         <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H21" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="I21" t="s">
-        <v>245</v>
+        <v>248</v>
+      </c>
+      <c r="J21" t="s">
+        <v>274</v>
       </c>
       <c r="K21" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L21" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N21" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P21" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2764,52 +2743,55 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G22" t="s">
         <v>211</v>
       </c>
-      <c r="H22" t="s">
-        <v>218</v>
-      </c>
       <c r="I22" t="s">
-        <v>246</v>
+        <v>249</v>
+      </c>
+      <c r="J22" t="s">
+        <v>275</v>
       </c>
       <c r="K22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L22" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N22" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="O22" t="s">
+        <v>48</v>
       </c>
       <c r="P22" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="b">
         <v>0</v>
@@ -2829,49 +2811,49 @@
         <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
-        <v>212</v>
+        <v>205</v>
+      </c>
+      <c r="H23" t="s">
+        <v>225</v>
       </c>
       <c r="I23" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J23" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K23" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L23" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="N23" t="s">
-        <v>335</v>
-      </c>
-      <c r="O23" t="s">
-        <v>49</v>
+        <v>337</v>
       </c>
       <c r="P23" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R23">
         <v>1</v>
       </c>
       <c r="S23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="b">
         <v>0</v>
@@ -2891,43 +2873,46 @@
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G24" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="H24" t="s">
+        <v>224</v>
       </c>
       <c r="I24" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J24" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L24" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N24" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O24" t="s">
         <v>50</v>
       </c>
       <c r="P24" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <v>1</v>
@@ -2953,46 +2938,46 @@
         <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" t="s">
         <v>205</v>
       </c>
       <c r="H25" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I25" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J25" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L25" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N25" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -3015,46 +3000,46 @@
         <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G26" t="s">
-        <v>204</v>
-      </c>
-      <c r="H26" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I26" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="J26" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="K26" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="L26" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N26" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
       </c>
       <c r="P26" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -3077,43 +3062,43 @@
         <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G27" t="s">
         <v>204</v>
       </c>
       <c r="H27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I27" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="J27" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="L27" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="N27" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="P27" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <v>2</v>
@@ -3139,46 +3124,46 @@
         <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G28" t="s">
         <v>205</v>
       </c>
       <c r="H28" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J28" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K28" t="s">
         <v>303</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N28" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P28" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -3194,50 +3179,41 @@
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
       <c r="C29" t="s">
         <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="F29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G29" t="s">
-        <v>205</v>
-      </c>
-      <c r="H29" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="I29" t="s">
-        <v>251</v>
-      </c>
-      <c r="J29" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="K29" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M29" t="s">
         <v>314</v>
       </c>
       <c r="N29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P29" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R29">
         <v>1</v>
@@ -3256,44 +3232,53 @@
       <c r="A30" t="s">
         <v>23</v>
       </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
       <c r="C30" t="s">
         <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>204</v>
+      </c>
+      <c r="H30" t="s">
+        <v>227</v>
       </c>
       <c r="I30" t="s">
-        <v>252</v>
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>279</v>
       </c>
       <c r="K30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L30" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M30" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="N30" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P30" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -3307,49 +3292,49 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H31" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="I31" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K31" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="M31" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="N31" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="P31" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -3378,40 +3363,40 @@
         <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I32" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="J32" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K32" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="L32" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="M32" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N32" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -3440,46 +3425,46 @@
         <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G33" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="H33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I33" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="J33" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="K33" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="M33" t="s">
         <v>318</v>
       </c>
       <c r="N33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P33" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -3502,43 +3487,43 @@
         <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G34" t="s">
         <v>205</v>
       </c>
       <c r="H34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I34" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="J34" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="K34" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="M34" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="N34" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="P34" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R34">
         <v>1</v>
@@ -3567,40 +3552,40 @@
         <v>102</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G35" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="H35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I35" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J35" t="s">
         <v>263</v>
       </c>
       <c r="K35" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L35" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M35" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N35" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P35" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R35">
         <v>1</v>
@@ -3629,37 +3614,37 @@
         <v>103</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
       </c>
       <c r="G36" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="H36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I36" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J36" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K36" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M36" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N36" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P36" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -3688,7 +3673,7 @@
         <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E37" t="s">
         <v>139</v>
@@ -3697,31 +3682,31 @@
         <v>186</v>
       </c>
       <c r="G37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I37" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="J37" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K37" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="L37" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="M37" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="N37" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="P37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -3744,49 +3729,49 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
         <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
         <v>140</v>
       </c>
       <c r="F38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G38" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="H38" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I38" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="J38" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="K38" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="L38" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="M38" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="N38" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="P38" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R38">
         <v>1</v>
@@ -3812,40 +3797,40 @@
         <v>65</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s">
         <v>141</v>
       </c>
       <c r="F39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H39" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I39" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J39" t="s">
         <v>267</v>
       </c>
       <c r="K39" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L39" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M39" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="N39" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="P39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -3874,40 +3859,40 @@
         <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
         <v>141</v>
       </c>
       <c r="F40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G40" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="H40" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I40" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="J40" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K40" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L40" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="M40" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="N40" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="P40" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -3936,46 +3921,46 @@
         <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E41" t="s">
         <v>142</v>
       </c>
       <c r="F41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H41" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I41" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="J41" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="K41" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="L41" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="M41" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="N41" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="P41" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -3998,43 +3983,43 @@
         <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G42" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H42" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I42" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="J42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K42" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L42" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M42" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="N42" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="P42" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R42">
         <v>1</v>
@@ -4060,40 +4045,40 @@
         <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G43" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="H43" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I43" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="J43" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="K43" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="L43" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="M43" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="N43" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P43" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -4122,43 +4107,46 @@
         <v>70</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F44" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G44" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="H44" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="I44" t="s">
-        <v>254</v>
+        <v>248</v>
+      </c>
+      <c r="J44" t="s">
+        <v>274</v>
       </c>
       <c r="K44" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="L44" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M44" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="N44" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="P44" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="Q44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -4175,49 +4163,46 @@
         <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
         <v>71</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E45" t="s">
         <v>144</v>
       </c>
       <c r="F45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G45" t="s">
-        <v>205</v>
-      </c>
-      <c r="H45" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I45" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="J45" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K45" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L45" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M45" t="s">
         <v>324</v>
       </c>
       <c r="N45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P45" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R45">
         <v>1</v>
@@ -4237,43 +4222,46 @@
         <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
         <v>72</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E46" t="s">
         <v>145</v>
       </c>
       <c r="F46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G46" t="s">
-        <v>209</v>
+        <v>205</v>
+      </c>
+      <c r="H46" t="s">
+        <v>225</v>
       </c>
       <c r="I46" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J46" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K46" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L46" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M46" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="N46" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="P46" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Q46">
         <v>2</v>
@@ -4302,43 +4290,43 @@
         <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F47" t="s">
         <v>194</v>
       </c>
       <c r="G47" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I47" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="J47" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="K47" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="L47" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="M47" t="s">
         <v>314</v>
       </c>
       <c r="N47" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P47" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R47">
         <v>1</v>
@@ -4364,37 +4352,37 @@
         <v>74</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F48" t="s">
         <v>195</v>
       </c>
       <c r="G48" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I48" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="J48" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="K48" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="L48" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="M48" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="N48" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="P48" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -4423,43 +4411,43 @@
         <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F49" t="s">
         <v>196</v>
       </c>
       <c r="G49" t="s">
-        <v>204</v>
-      </c>
-      <c r="H49" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I49" t="s">
-        <v>256</v>
+        <v>247</v>
+      </c>
+      <c r="J49" t="s">
+        <v>273</v>
       </c>
       <c r="K49" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="L49" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="M49" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="N49" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="P49" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R49">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -4482,37 +4470,40 @@
         <v>76</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F50" t="s">
         <v>197</v>
       </c>
       <c r="G50" t="s">
-        <v>213</v>
+        <v>207</v>
+      </c>
+      <c r="H50" t="s">
+        <v>221</v>
       </c>
       <c r="I50" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="J50" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K50" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="L50" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="M50" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N50" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P50" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -4541,43 +4532,43 @@
         <v>77</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G51" t="s">
         <v>205</v>
       </c>
       <c r="H51" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I51" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="J51" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K51" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L51" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M51" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N51" t="s">
         <v>330</v>
       </c>
       <c r="P51" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R51">
         <v>1</v>
@@ -4603,43 +4594,46 @@
         <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G52" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="H52" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I52" t="s">
-        <v>256</v>
+        <v>242</v>
+      </c>
+      <c r="J52" t="s">
+        <v>268</v>
       </c>
       <c r="K52" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="L52" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="M52" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="N52" t="s">
+        <v>325</v>
+      </c>
+      <c r="P52" t="s">
         <v>344</v>
       </c>
-      <c r="P52" t="s">
-        <v>346</v>
-      </c>
       <c r="Q52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R52">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -4659,37 +4653,43 @@
         <v>79</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G53" t="s">
-        <v>216</v>
+        <v>205</v>
+      </c>
+      <c r="H53" t="s">
+        <v>227</v>
       </c>
       <c r="I53" t="s">
-        <v>257</v>
+        <v>239</v>
+      </c>
+      <c r="J53" t="s">
+        <v>266</v>
       </c>
       <c r="K53" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="L53" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="M53" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N53" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P53" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="Q53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R53">
         <v>1</v>
@@ -4715,40 +4715,40 @@
         <v>80</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G54" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="H54" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I54" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J54" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K54" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L54" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M54" t="s">
         <v>311</v>
       </c>
       <c r="N54" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P54" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -4777,40 +4777,40 @@
         <v>81</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G55" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="H55" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I55" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J55" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K55" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L55" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M55" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="N55" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="P55" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q55">
         <v>1</v>
